--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="263">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Наименование оборудования, комплекта</t>
   </si>
   <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
-  </si>
-  <si>
     <t>Инвентарный номер</t>
   </si>
   <si>
@@ -774,6 +768,51 @@
   </si>
   <si>
     <t>403</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>корпус</t>
+  </si>
+  <si>
+    <t>Сервер S1 / ИБ СКДПУ (Бастион) - 1</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube161-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube160-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер PG / pg111-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T2.2 / xdb142_ural</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb123-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb133-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / 237-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / 208-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch209-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch210-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch211-f1.asbi.grfc.ru</t>
   </si>
 </sst>
 </file>
@@ -793,12 +832,16 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1146,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,8 +1198,8 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -1175,94 +1218,96 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3">
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1272,48 +1317,48 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="3">
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1323,24 +1368,24 @@
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1350,79 +1395,81 @@
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3">
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3">
         <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1432,48 +1479,48 @@
         <v>3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3">
         <v>2020</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1483,24 +1530,24 @@
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1510,79 +1557,81 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3">
         <v>2020</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" s="3">
         <v>2020</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1592,48 +1641,48 @@
         <v>3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="3">
         <v>2020</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1643,24 +1692,24 @@
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1670,79 +1719,81 @@
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="3">
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1752,36 +1803,36 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="3">
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1791,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -1801,24 +1852,24 @@
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1828,79 +1879,81 @@
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" s="3">
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L18" s="3">
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1910,48 +1963,48 @@
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="3">
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1961,24 +2014,24 @@
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1988,79 +2041,81 @@
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="3">
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2070,48 +2125,48 @@
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L23" s="3">
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3">
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2121,24 +2176,24 @@
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2148,79 +2203,81 @@
         <v>3</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L25" s="3">
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
         <v>3</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L26" s="3">
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2230,48 +2287,48 @@
         <v>3</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L27" s="3">
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3">
         <v>3</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2281,24 +2338,24 @@
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2308,75 +2365,77 @@
         <v>3</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" s="3">
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
         <v>3</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L30" s="3">
         <v>2019</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2386,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -2396,24 +2455,24 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2423,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -2433,67 +2492,69 @@
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L33" s="3">
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2503,48 +2564,48 @@
         <v>3</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L34" s="3">
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3">
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2554,24 +2615,24 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2581,79 +2642,81 @@
         <v>3</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L36" s="3">
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L37" s="3">
         <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2663,48 +2726,48 @@
         <v>3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L38" s="3">
         <v>2020</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3">
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -2714,24 +2777,24 @@
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2741,79 +2804,81 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40" s="3">
         <v>2020</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
         <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L41" s="3">
         <v>2020</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2823,48 +2888,48 @@
         <v>3</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L42" s="3">
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3">
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2874,24 +2939,24 @@
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2901,81 +2966,83 @@
         <v>3</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L44" s="3">
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="H45" s="3">
         <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L45" s="3">
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2985,36 +3052,36 @@
         <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L46" s="3">
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3024,83 +3091,83 @@
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L47" s="3">
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H48" s="3">
         <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L48" s="3">
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3109,35 +3176,37 @@
       <c r="H49" s="3">
         <v>3</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L49" s="3">
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3146,1131 +3215,1133 @@
       <c r="H50" s="3">
         <v>3</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L50" s="3">
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3">
         <v>3</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L51" s="3">
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L52" s="3">
         <v>2020</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
         <v>3</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L53" s="3">
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3">
         <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L54" s="3">
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3">
         <v>3</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L55" s="3">
         <v>2020</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3">
         <v>3</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L56" s="3">
         <v>2020</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3">
         <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L57" s="3">
         <v>2020</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3">
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L58" s="3">
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3">
         <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L59" s="3">
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3">
         <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L60" s="3">
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3">
         <v>3</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L61" s="3">
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3">
         <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L62" s="3">
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3">
         <v>3</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L63" s="3">
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3">
         <v>3</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L64" s="3">
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3">
         <v>3</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L65" s="3">
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3">
         <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L66" s="3">
         <v>2020</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3">
         <v>3</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L67" s="3">
         <v>2020</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3">
         <v>3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L68" s="3">
         <v>2020</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3">
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L69" s="3">
         <v>2020</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3">
         <v>3</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L70" s="3">
         <v>2020</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3">
         <v>3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L71" s="3">
         <v>2020</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3">
         <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L72" s="3">
         <v>2020</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3">
         <v>3</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L73" s="3">
         <v>2020</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3">
         <v>3</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L74" s="3">
         <v>2020</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>240</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
         <v>3</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L75" s="3">
         <v>2020</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
         <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L76" s="3">
         <v>2020</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3">
         <v>3</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L77" s="3">
         <v>2020</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="267">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">FT-SFP+CabA-2   </t>
   </si>
   <si>
-    <t>Трансивер 40GBASE- LR4</t>
-  </si>
-  <si>
     <t>FT-QSFP+-LR4</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>00-34184</t>
   </si>
   <si>
-    <t xml:space="preserve"> KAS0CG00020Z</t>
-  </si>
-  <si>
     <t>FT4J209631</t>
   </si>
   <si>
@@ -813,6 +807,24 @@
   </si>
   <si>
     <t>Сервер S5 / ch211-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Трансивер 40GBASE-LR4</t>
+  </si>
+  <si>
+    <t>SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>KAS0CG00020Z</t>
+  </si>
+  <si>
+    <t>10GBASE-SR</t>
+  </si>
+  <si>
+    <t>10G SFP+ AOC</t>
+  </si>
+  <si>
+    <t>PM160-220/12</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1245,21 +1257,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -1268,17 +1280,17 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1290,26 +1302,28 @@
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1329,26 +1343,28 @@
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -1358,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1368,26 +1384,28 @@
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1407,21 +1425,21 @@
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1430,17 +1448,17 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -1452,26 +1470,28 @@
         <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1491,26 +1511,28 @@
         <v>2020</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -1520,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1530,26 +1552,28 @@
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1569,21 +1593,21 @@
         <v>2020</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
@@ -1592,17 +1616,17 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -1614,26 +1638,28 @@
         <v>2020</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1653,26 +1679,28 @@
         <v>2020</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
@@ -1682,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1692,26 +1720,28 @@
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1731,21 +1761,21 @@
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -1754,17 +1784,17 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1776,26 +1806,28 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1815,26 +1847,28 @@
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1842,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -1852,26 +1886,28 @@
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1891,21 +1927,21 @@
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -1914,17 +1950,17 @@
         <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1936,26 +1972,28 @@
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1975,26 +2013,28 @@
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
@@ -2004,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2014,26 +2054,28 @@
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2053,21 +2095,21 @@
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -2076,17 +2118,17 @@
         <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
@@ -2098,26 +2140,28 @@
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2137,26 +2181,28 @@
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
@@ -2166,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2176,26 +2222,28 @@
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2215,21 +2263,21 @@
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
@@ -2238,17 +2286,17 @@
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
         <v>3</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -2260,26 +2308,28 @@
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2299,26 +2349,28 @@
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
@@ -2328,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2338,26 +2390,28 @@
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2377,28 +2431,30 @@
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2406,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -2418,26 +2474,28 @@
         <v>2019</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2455,26 +2513,28 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2492,40 +2552,40 @@
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
@@ -2537,26 +2597,28 @@
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2576,26 +2638,28 @@
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -2605,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2615,26 +2679,28 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2654,21 +2720,21 @@
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -2677,17 +2743,17 @@
         <v>24</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -2699,26 +2765,28 @@
         <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2738,26 +2806,28 @@
         <v>2020</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
@@ -2767,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -2777,26 +2847,28 @@
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2816,21 +2888,21 @@
         <v>2020</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
@@ -2839,17 +2911,17 @@
         <v>24</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
         <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -2861,26 +2933,28 @@
         <v>2020</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2900,26 +2974,28 @@
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
@@ -2929,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2939,26 +3015,28 @@
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2978,42 +3056,42 @@
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="H45" s="3">
         <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -3025,26 +3103,28 @@
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3064,26 +3144,28 @@
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3103,21 +3185,21 @@
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
@@ -3126,19 +3208,19 @@
         <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="3">
         <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
@@ -3150,26 +3232,28 @@
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3177,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -3189,26 +3273,28 @@
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3216,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -3228,27 +3314,27 @@
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3257,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -3269,27 +3355,27 @@
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3298,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
@@ -3310,27 +3396,27 @@
         <v>2020</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3339,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
@@ -3351,27 +3437,27 @@
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3380,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -3392,27 +3478,27 @@
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3421,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -3433,27 +3519,27 @@
         <v>2020</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3462,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
@@ -3474,27 +3560,27 @@
         <v>2020</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3503,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
@@ -3515,21 +3601,21 @@
         <v>2020</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>30</v>
@@ -3544,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -3556,27 +3642,27 @@
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3585,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -3597,27 +3683,27 @@
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3626,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -3638,27 +3724,27 @@
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3667,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -3679,27 +3765,27 @@
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3708,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -3720,27 +3806,27 @@
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3749,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
@@ -3761,27 +3847,27 @@
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3790,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -3802,27 +3888,27 @@
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3831,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -3843,27 +3929,27 @@
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3872,7 +3958,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3884,27 +3970,27 @@
         <v>2020</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3913,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -3925,27 +4011,27 @@
         <v>2020</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -3954,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
@@ -3966,27 +4052,27 @@
         <v>2020</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3995,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
@@ -4007,21 +4093,21 @@
         <v>2020</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>30</v>
@@ -4036,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
@@ -4048,27 +4134,27 @@
         <v>2020</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4077,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
@@ -4089,21 +4175,21 @@
         <v>2020</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>15</v>
@@ -4118,7 +4204,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
@@ -4130,27 +4216,27 @@
         <v>2020</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4159,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
@@ -4171,27 +4257,27 @@
         <v>2020</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4200,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -4212,27 +4298,27 @@
         <v>2020</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4241,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
@@ -4253,27 +4339,27 @@
         <v>2020</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4282,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
@@ -4294,27 +4380,27 @@
         <v>2020</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4323,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -4335,13 +4421,13 @@
         <v>2020</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="268">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -71,9 +71,6 @@
     <t>ensXf0</t>
   </si>
   <si>
-    <t>Кабель оптический 10G SFP+</t>
-  </si>
-  <si>
     <t>Учтено в коммутационном оборудовании</t>
   </si>
   <si>
@@ -818,13 +815,19 @@
     <t>KAS0CG00020Z</t>
   </si>
   <si>
-    <t>10GBASE-SR</t>
-  </si>
-  <si>
-    <t>10G SFP+ AOC</t>
-  </si>
-  <si>
     <t>PM160-220/12</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT-SFP+CabA-3   </t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
   </si>
 </sst>
 </file>
@@ -1202,17 +1205,17 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1230,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1257,40 +1260,40 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1302,27 +1305,27 @@
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1343,38 +1346,38 @@
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>265</v>
+      <c r="C4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1384,27 +1387,27 @@
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1425,40 +1428,40 @@
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -1470,27 +1473,27 @@
         <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1511,38 +1514,38 @@
         <v>2020</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>265</v>
+      <c r="C8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3">
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -1552,27 +1555,27 @@
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1593,40 +1596,40 @@
         <v>2020</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -1638,27 +1641,27 @@
         <v>2020</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1679,38 +1682,38 @@
         <v>2020</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>265</v>
+      <c r="C12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1720,27 +1723,27 @@
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1761,40 +1764,40 @@
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1806,27 +1809,27 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1847,27 +1850,27 @@
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>265</v>
+      <c r="C16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1876,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -1886,27 +1889,27 @@
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1927,40 +1930,40 @@
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1972,27 +1975,27 @@
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2013,38 +2016,38 @@
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>265</v>
+      <c r="C20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -2054,27 +2057,27 @@
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2095,40 +2098,40 @@
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
@@ -2140,27 +2143,27 @@
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2181,38 +2184,38 @@
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>265</v>
+      <c r="C24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="3">
         <v>3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2222,27 +2225,27 @@
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2263,40 +2266,40 @@
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
         <v>3</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -2308,27 +2311,27 @@
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2349,38 +2352,38 @@
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>265</v>
+      <c r="C28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3">
         <v>3</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2390,27 +2393,27 @@
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2431,30 +2434,30 @@
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2462,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -2474,27 +2477,27 @@
         <v>2019</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2503,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
@@ -2513,27 +2516,27 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2542,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -2552,40 +2555,40 @@
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
@@ -2597,27 +2600,27 @@
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2638,38 +2641,38 @@
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>265</v>
+      <c r="C35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="3">
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2679,27 +2682,27 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2720,40 +2723,40 @@
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
         <v>3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -2765,27 +2768,27 @@
         <v>2020</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2806,38 +2809,38 @@
         <v>2020</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>265</v>
+      <c r="C39" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3">
         <v>3</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -2847,27 +2850,27 @@
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2888,40 +2891,40 @@
         <v>2020</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
         <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -2933,27 +2936,27 @@
         <v>2020</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2974,38 +2977,38 @@
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>265</v>
+      <c r="C43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="3">
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3015,27 +3018,27 @@
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3056,42 +3059,42 @@
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45" s="3">
         <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -3103,27 +3106,27 @@
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3144,27 +3147,27 @@
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3173,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
@@ -3185,42 +3188,42 @@
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" s="3">
         <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
@@ -3232,27 +3235,27 @@
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3261,39 +3264,39 @@
         <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" s="3">
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3302,39 +3305,39 @@
         <v>3</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L50" s="3">
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3343,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -3355,27 +3358,27 @@
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>15</v>
+        <v>188</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3384,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
@@ -3396,27 +3399,27 @@
         <v>2020</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3425,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
@@ -3437,27 +3440,27 @@
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>192</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3466,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -3478,27 +3481,27 @@
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>15</v>
+        <v>194</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3507,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -3519,27 +3522,27 @@
         <v>2020</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3548,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
@@ -3560,27 +3563,27 @@
         <v>2020</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3589,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
@@ -3601,27 +3604,27 @@
         <v>2020</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3630,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -3642,27 +3645,27 @@
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>15</v>
+        <v>204</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3671,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -3683,27 +3686,27 @@
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>206</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3712,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -3724,27 +3727,27 @@
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>207</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3753,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -3765,27 +3768,27 @@
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3794,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -3806,27 +3809,27 @@
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>15</v>
+      <c r="C63" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3835,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
@@ -3847,27 +3850,27 @@
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>15</v>
+      <c r="C64" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3876,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -3888,27 +3891,27 @@
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>15</v>
+      <c r="C65" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3917,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -3929,27 +3932,27 @@
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>15</v>
+      <c r="C66" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3958,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3970,27 +3973,27 @@
         <v>2020</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>187</v>
+      <c r="C67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3999,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -4011,27 +4014,27 @@
         <v>2020</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>187</v>
+      <c r="C68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4040,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
@@ -4052,27 +4055,27 @@
         <v>2020</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>187</v>
+      <c r="C69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4081,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
@@ -4093,27 +4096,27 @@
         <v>2020</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4122,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
@@ -4134,27 +4137,27 @@
         <v>2020</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>15</v>
+      <c r="C71" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4163,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
@@ -4175,27 +4178,27 @@
         <v>2020</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>15</v>
+      <c r="C72" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -4204,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
@@ -4216,27 +4219,27 @@
         <v>2020</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>15</v>
+      <c r="C73" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4245,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
@@ -4257,27 +4260,27 @@
         <v>2020</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4286,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -4298,27 +4301,27 @@
         <v>2020</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4327,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
@@ -4339,27 +4342,27 @@
         <v>2020</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4368,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
@@ -4380,27 +4383,27 @@
         <v>2020</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4409,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -4421,13 +4424,13 @@
         <v>2020</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
